--- a/src/views/apps/freshlist/UploadFormats/UploadProductSample.xlsx
+++ b/src/views/apps/freshlist/UploadFormats/UploadProductSample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>warehouse</t>
   </si>
@@ -30,9 +30,6 @@
     <t>SubCategory</t>
   </si>
   <si>
-    <t>purchaseStatus</t>
-  </si>
-  <si>
     <t>Product_Title</t>
   </si>
   <si>
@@ -63,12 +60,6 @@
     <t>MIN_stockalert</t>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>Cake</t>
-  </si>
-  <si>
     <t>hsnsoft2587</t>
   </si>
   <si>
@@ -78,16 +69,22 @@
     <t>Ctn</t>
   </si>
   <si>
-    <t>Indorewarehouse</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Cake Item</t>
-  </si>
-  <si>
-    <t>pinnaplecake</t>
+    <t>INDOREWAREHOUSE</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>PINAPPLE</t>
+  </si>
+  <si>
+    <t>TEST PRODUCT</t>
   </si>
 </sst>
 </file>
@@ -450,28 +447,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
-    <col min="8" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="1023" width="9" style="1"/>
-    <col min="1024" max="1024" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="1022" width="9" style="1"/>
+    <col min="1023" max="1023" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="2" customFormat="1">
+    <row r="1" spans="1:1024" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -481,11 +478,11 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -496,7 +493,7 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -511,120 +508,114 @@
       <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" s="2" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4">
+        <v>185</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:1025" s="2" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="H2" s="4">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4">
-        <v>185</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
+      <c r="K2" s="4">
+        <v>2</v>
       </c>
       <c r="L2" s="4">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="M2" s="4">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="N2" s="4">
-        <v>10</v>
-      </c>
-      <c r="O2" s="4">
         <v>600</v>
       </c>
-      <c r="AMK2"/>
-    </row>
-    <row r="3" spans="1:1025">
-      <c r="E3" s="3"/>
-      <c r="AMJ3" s="1"/>
-    </row>
-    <row r="4" spans="1:1025">
-      <c r="E4" s="3"/>
-      <c r="AMJ4" s="1"/>
-    </row>
-    <row r="5" spans="1:1025">
-      <c r="E5" s="3"/>
-      <c r="AMJ5" s="1"/>
-    </row>
-    <row r="6" spans="1:1025">
-      <c r="E6" s="3"/>
-      <c r="AMJ6" s="1"/>
-    </row>
-    <row r="7" spans="1:1025">
-      <c r="E7" s="3"/>
-      <c r="AMJ7" s="1"/>
-    </row>
-    <row r="8" spans="1:1025">
-      <c r="E8" s="3"/>
-      <c r="AMJ8" s="1"/>
-    </row>
-    <row r="9" spans="1:1025">
-      <c r="E9" s="3"/>
-      <c r="AMJ9" s="1"/>
-    </row>
-    <row r="10" spans="1:1025">
-      <c r="E10" s="3"/>
-      <c r="AMJ10" s="1"/>
-    </row>
-    <row r="11" spans="1:1025">
-      <c r="E11" s="3"/>
-      <c r="AMJ11" s="1"/>
-    </row>
-    <row r="12" spans="1:1025">
-      <c r="E12" s="3"/>
-      <c r="AMJ12" s="1"/>
-    </row>
-    <row r="13" spans="1:1025">
-      <c r="E13" s="3"/>
-      <c r="AMJ13" s="1"/>
-    </row>
-    <row r="14" spans="1:1025">
-      <c r="E14" s="3"/>
-      <c r="AMJ14" s="1"/>
-    </row>
-    <row r="15" spans="1:1025">
-      <c r="E15" s="3"/>
-      <c r="AMJ15" s="1"/>
-    </row>
-    <row r="16" spans="1:1025">
-      <c r="E16" s="3"/>
-      <c r="AMJ16" s="1"/>
-    </row>
-    <row r="17" spans="1024:1024">
-      <c r="AMJ17" s="1"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="D3" s="3"/>
+      <c r="AMI3" s="1"/>
+    </row>
+    <row r="4" spans="1:1024">
+      <c r="D4" s="3"/>
+      <c r="AMI4" s="1"/>
+    </row>
+    <row r="5" spans="1:1024">
+      <c r="D5" s="3"/>
+      <c r="AMI5" s="1"/>
+    </row>
+    <row r="6" spans="1:1024">
+      <c r="D6" s="3"/>
+      <c r="AMI6" s="1"/>
+    </row>
+    <row r="7" spans="1:1024">
+      <c r="D7" s="3"/>
+      <c r="AMI7" s="1"/>
+    </row>
+    <row r="8" spans="1:1024">
+      <c r="D8" s="3"/>
+      <c r="AMI8" s="1"/>
+    </row>
+    <row r="9" spans="1:1024">
+      <c r="D9" s="3"/>
+      <c r="AMI9" s="1"/>
+    </row>
+    <row r="10" spans="1:1024">
+      <c r="D10" s="3"/>
+      <c r="AMI10" s="1"/>
+    </row>
+    <row r="11" spans="1:1024">
+      <c r="D11" s="3"/>
+      <c r="AMI11" s="1"/>
+    </row>
+    <row r="12" spans="1:1024">
+      <c r="D12" s="3"/>
+      <c r="AMI12" s="1"/>
+    </row>
+    <row r="13" spans="1:1024">
+      <c r="D13" s="3"/>
+      <c r="AMI13" s="1"/>
+    </row>
+    <row r="14" spans="1:1024">
+      <c r="D14" s="3"/>
+      <c r="AMI14" s="1"/>
+    </row>
+    <row r="15" spans="1:1024">
+      <c r="D15" s="3"/>
+      <c r="AMI15" s="1"/>
+    </row>
+    <row r="16" spans="1:1024">
+      <c r="D16" s="3"/>
+      <c r="AMI16" s="1"/>
+    </row>
+    <row r="17" spans="1023:1023">
+      <c r="AMI17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/views/apps/freshlist/UploadFormats/UploadProductSample.xlsx
+++ b/src/views/apps/freshlist/UploadFormats/UploadProductSample.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>warehouse</t>
   </si>
@@ -27,9 +27,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
     <t>Product_Title</t>
   </si>
   <si>
@@ -78,13 +75,13 @@
     <t>MATERIAL</t>
   </si>
   <si>
-    <t>CAKE</t>
-  </si>
-  <si>
     <t>PINAPPLE</t>
   </si>
   <si>
     <t>TEST PRODUCT</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -449,19 +446,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="12" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="12" width="14" style="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="1022" width="9" style="1"/>
@@ -475,11 +471,11 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -488,61 +484,61 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="4">
         <v>185</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
       </c>
       <c r="H2" s="4">
         <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="K2" s="4">
         <v>2</v>
@@ -559,59 +555,59 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024">
-      <c r="D3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="AMI3" s="1"/>
     </row>
     <row r="4" spans="1:1024">
-      <c r="D4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="AMI4" s="1"/>
     </row>
     <row r="5" spans="1:1024">
-      <c r="D5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="AMI5" s="1"/>
     </row>
     <row r="6" spans="1:1024">
-      <c r="D6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="AMI6" s="1"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="D7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="AMI7" s="1"/>
     </row>
     <row r="8" spans="1:1024">
-      <c r="D8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="AMI8" s="1"/>
     </row>
     <row r="9" spans="1:1024">
-      <c r="D9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="AMI9" s="1"/>
     </row>
     <row r="10" spans="1:1024">
-      <c r="D10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="AMI10" s="1"/>
     </row>
     <row r="11" spans="1:1024">
-      <c r="D11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="AMI11" s="1"/>
     </row>
     <row r="12" spans="1:1024">
-      <c r="D12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="AMI12" s="1"/>
     </row>
     <row r="13" spans="1:1024">
-      <c r="D13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="AMI13" s="1"/>
     </row>
     <row r="14" spans="1:1024">
-      <c r="D14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="AMI14" s="1"/>
     </row>
     <row r="15" spans="1:1024">
-      <c r="D15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="AMI15" s="1"/>
     </row>
     <row r="16" spans="1:1024">
-      <c r="D16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="AMI16" s="1"/>
     </row>
     <row r="17" spans="1023:1023">

--- a/src/views/apps/freshlist/UploadFormats/UploadProductSample.xlsx
+++ b/src/views/apps/freshlist/UploadFormats/UploadProductSample.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>warehouse</t>
   </si>
@@ -27,6 +27,9 @@
     <t>category</t>
   </si>
   <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
     <t>Product_Title</t>
   </si>
   <si>
@@ -75,13 +78,13 @@
     <t>MATERIAL</t>
   </si>
   <si>
+    <t>CAKE</t>
+  </si>
+  <si>
     <t>PINAPPLE</t>
   </si>
   <si>
     <t>TEST PRODUCT</t>
-  </si>
-  <si>
-    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -446,18 +449,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="12" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="12" width="14" style="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="1022" width="9" style="1"/>
@@ -471,11 +475,11 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -484,61 +488,61 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" s="2" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4">
         <v>185</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>100</v>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="4">
         <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="4">
         <v>2</v>
@@ -555,59 +559,59 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024">
-      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="AMI3" s="1"/>
     </row>
     <row r="4" spans="1:1024">
-      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="AMI4" s="1"/>
     </row>
     <row r="5" spans="1:1024">
-      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="AMI5" s="1"/>
     </row>
     <row r="6" spans="1:1024">
-      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="AMI6" s="1"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="AMI7" s="1"/>
     </row>
     <row r="8" spans="1:1024">
-      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="AMI8" s="1"/>
     </row>
     <row r="9" spans="1:1024">
-      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="AMI9" s="1"/>
     </row>
     <row r="10" spans="1:1024">
-      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="AMI10" s="1"/>
     </row>
     <row r="11" spans="1:1024">
-      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="AMI11" s="1"/>
     </row>
     <row r="12" spans="1:1024">
-      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="AMI12" s="1"/>
     </row>
     <row r="13" spans="1:1024">
-      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="AMI13" s="1"/>
     </row>
     <row r="14" spans="1:1024">
-      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="AMI14" s="1"/>
     </row>
     <row r="15" spans="1:1024">
-      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="AMI15" s="1"/>
     </row>
     <row r="16" spans="1:1024">
-      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="AMI16" s="1"/>
     </row>
     <row r="17" spans="1023:1023">
